--- a/prep/Resultados_Escenario_Baseline.xlsx
+++ b/prep/Resultados_Escenario_Baseline.xlsx
@@ -461,52 +461,52 @@
         <v>18</v>
       </c>
       <c r="B2" t="n">
-        <v>11314873.0447916</v>
+        <v>11554617.8962204</v>
       </c>
       <c r="C2" t="n">
-        <v>10022868.0907353</v>
+        <v>-268947467.421113</v>
       </c>
       <c r="D2" t="n">
-        <v>414827.413106047</v>
+        <v>150420.128107754</v>
       </c>
       <c r="E2" t="n">
-        <v>347380.707926547</v>
+        <v>113487.224209943</v>
       </c>
       <c r="F2" t="n">
-        <v>92953.1888457952</v>
+        <v>278274299.226709</v>
       </c>
       <c r="G2" t="n">
-        <v>440333.896772342</v>
+        <v>278387786.450919</v>
       </c>
       <c r="H2" t="n">
-        <v>16614.8346250421</v>
+        <v>6329.2755529044</v>
       </c>
       <c r="I2" t="n">
-        <v>0.10322197382423</v>
+        <v>0.0407523589586967</v>
       </c>
       <c r="J2" t="n">
-        <v>51005.3356950971</v>
+        <v>65.8656047451074</v>
       </c>
       <c r="K2" t="n">
-        <v>46414.8554825383</v>
+        <v>5993.77003180478</v>
       </c>
       <c r="L2" t="n">
-        <v>63005.3356950971</v>
+        <v>18065.8656047451</v>
       </c>
       <c r="M2" t="n">
-        <v>204028.012257698</v>
+        <v>27093.9020234045</v>
       </c>
       <c r="N2" t="n">
-        <v>198802132.572256</v>
+        <v>280171313.839889</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>891990163.767911</v>
+        <v>1361104165277.77</v>
       </c>
       <c r="Q2" t="n">
-        <v>1090792296.34017</v>
+        <v>1361384336591.61</v>
       </c>
       <c r="R2" t="n">
         <v>303118.169896544</v>
@@ -517,52 +517,52 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>3998416.35304544</v>
+        <v>4037218.5925632</v>
       </c>
       <c r="C3" t="n">
-        <v>3572767.7394857</v>
+        <v>-153492987.85454</v>
       </c>
       <c r="D3" t="n">
-        <v>162853.055233896</v>
+        <v>103281.492049934</v>
       </c>
       <c r="E3" t="n">
-        <v>137143.211332786</v>
+        <v>78385.4398651211</v>
       </c>
       <c r="F3" t="n">
-        <v>32180.8254608798</v>
+        <v>156770400.673036</v>
       </c>
       <c r="G3" t="n">
-        <v>169324.036793666</v>
+        <v>156848786.112901</v>
       </c>
       <c r="H3" t="n">
-        <v>16614.8346250421</v>
+        <v>6329.2755529044</v>
       </c>
       <c r="I3" t="n">
-        <v>0.10322197382423</v>
+        <v>0.0407523589586967</v>
       </c>
       <c r="J3" t="n">
-        <v>51005.3356950971</v>
+        <v>65.8656047451074</v>
       </c>
       <c r="K3" t="n">
-        <v>46414.8554825383</v>
+        <v>5993.77003180478</v>
       </c>
       <c r="L3" t="n">
-        <v>63005.3356950971</v>
+        <v>18065.8656047451</v>
       </c>
       <c r="M3" t="n">
-        <v>204028.012257698</v>
+        <v>27093.9020234045</v>
       </c>
       <c r="N3" t="n">
-        <v>69760309.6589056</v>
+        <v>93485734.7981108</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>308766362.766889</v>
+        <v>766800415826.048</v>
       </c>
       <c r="Q3" t="n">
-        <v>378526672.425794</v>
+        <v>766893901560.847</v>
       </c>
       <c r="R3" t="n">
         <v>303118.169896544</v>

--- a/prep/Resultados_Escenario_Baseline.xlsx
+++ b/prep/Resultados_Escenario_Baseline.xlsx
@@ -461,52 +461,52 @@
         <v>18</v>
       </c>
       <c r="B2" t="n">
-        <v>11554617.8962204</v>
+        <v>11313981.246928</v>
       </c>
       <c r="C2" t="n">
-        <v>-268947467.421113</v>
+        <v>10037956.0184596</v>
       </c>
       <c r="D2" t="n">
-        <v>150420.128107754</v>
+        <v>414772.172748311</v>
       </c>
       <c r="E2" t="n">
-        <v>113487.224209943</v>
+        <v>347999.908572857</v>
       </c>
       <c r="F2" t="n">
-        <v>278274299.226709</v>
+        <v>92930.9207494862</v>
       </c>
       <c r="G2" t="n">
-        <v>278387786.450919</v>
+        <v>440930.829322343</v>
       </c>
       <c r="H2" t="n">
-        <v>6329.2755529044</v>
+        <v>16610.8893777927</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0407523589586967</v>
+        <v>0.103191645714704</v>
       </c>
       <c r="J2" t="n">
-        <v>65.8656047451074</v>
+        <v>50997.1272987584</v>
       </c>
       <c r="K2" t="n">
-        <v>5993.77003180478</v>
+        <v>46407.3858418701</v>
       </c>
       <c r="L2" t="n">
-        <v>18065.8656047451</v>
+        <v>62997.1272987584</v>
       </c>
       <c r="M2" t="n">
-        <v>27093.9020234045</v>
+        <v>203995.081888081</v>
       </c>
       <c r="N2" t="n">
-        <v>280171313.839889</v>
+        <v>198791805.642913</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1361104165277.77</v>
+        <v>891776383.405397</v>
       </c>
       <c r="Q2" t="n">
-        <v>1361384336591.61</v>
+        <v>1090568189.04831</v>
       </c>
       <c r="R2" t="n">
         <v>303118.169896544</v>
@@ -517,52 +517,52 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>4037218.5925632</v>
+        <v>3998137.70335455</v>
       </c>
       <c r="C3" t="n">
-        <v>-153492987.85454</v>
+        <v>3577761.75700196</v>
       </c>
       <c r="D3" t="n">
-        <v>103281.492049934</v>
+        <v>162841.609015258</v>
       </c>
       <c r="E3" t="n">
-        <v>78385.4398651211</v>
+        <v>137381.454110245</v>
       </c>
       <c r="F3" t="n">
-        <v>156770400.673036</v>
+        <v>32175.4528613079</v>
       </c>
       <c r="G3" t="n">
-        <v>156848786.112901</v>
+        <v>169556.906971553</v>
       </c>
       <c r="H3" t="n">
-        <v>6329.2755529044</v>
+        <v>16610.8893777927</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0407523589586967</v>
+        <v>0.103191645714704</v>
       </c>
       <c r="J3" t="n">
-        <v>65.8656047451074</v>
+        <v>50997.1272987584</v>
       </c>
       <c r="K3" t="n">
-        <v>5993.77003180478</v>
+        <v>46407.3858418701</v>
       </c>
       <c r="L3" t="n">
-        <v>18065.8656047451</v>
+        <v>62997.1272987584</v>
       </c>
       <c r="M3" t="n">
-        <v>27093.9020234045</v>
+        <v>203995.081888081</v>
       </c>
       <c r="N3" t="n">
-        <v>93485734.7981108</v>
+        <v>69756497.5204919</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>766800415826.048</v>
+        <v>308714785.073912</v>
       </c>
       <c r="Q3" t="n">
-        <v>766893901560.847</v>
+        <v>378471282.594403</v>
       </c>
       <c r="R3" t="n">
         <v>303118.169896544</v>

--- a/prep/Resultados_Escenario_Baseline.xlsx
+++ b/prep/Resultados_Escenario_Baseline.xlsx
@@ -461,53 +461,49 @@
         <v>18</v>
       </c>
       <c r="B2" t="n">
-        <v>11313981.246928</v>
+        <v>12267300.8204575</v>
       </c>
       <c r="C2" t="n">
-        <v>10037956.0184596</v>
+        <v>-285061964.181795</v>
       </c>
       <c r="D2" t="n">
-        <v>414772.172748311</v>
+        <v>138494.25677694</v>
       </c>
       <c r="E2" t="n">
-        <v>347999.908572857</v>
+        <v>115998.748094584</v>
       </c>
       <c r="F2" t="n">
-        <v>92930.9207494862</v>
+        <v>295973117.038363</v>
       </c>
       <c r="G2" t="n">
-        <v>440930.829322343</v>
+        <v>296089115.786458</v>
       </c>
       <c r="H2" t="n">
-        <v>16610.8893777927</v>
+        <v>6100.89154194934</v>
       </c>
       <c r="I2" t="n">
-        <v>0.103191645714704</v>
+        <v>0.0425277389082881</v>
       </c>
       <c r="J2" t="n">
-        <v>50997.1272987584</v>
+        <v>253.690998418718</v>
       </c>
       <c r="K2" t="n">
-        <v>46407.3858418701</v>
+        <v>23846.9538513595</v>
       </c>
       <c r="L2" t="n">
-        <v>62997.1272987584</v>
+        <v>16253.6909984187</v>
       </c>
       <c r="M2" t="n">
-        <v>203995.081888081</v>
+        <v>107795.987785388</v>
       </c>
       <c r="N2" t="n">
-        <v>198791805.642913</v>
+        <v>277972270.223894</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="n">
-        <v>891776383.405397</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1090568189.04831</v>
-      </c>
+      <c r="P2"/>
+      <c r="Q2"/>
       <c r="R2" t="n">
         <v>303118.169896544</v>
       </c>
@@ -517,53 +513,49 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>3998137.70335455</v>
+        <v>4214395.98159892</v>
       </c>
       <c r="C3" t="n">
-        <v>3577761.75700196</v>
+        <v>-157732230.870394</v>
       </c>
       <c r="D3" t="n">
-        <v>162841.609015258</v>
+        <v>94166.3911045499</v>
       </c>
       <c r="E3" t="n">
-        <v>137381.454110245</v>
+        <v>79532.7761052403</v>
       </c>
       <c r="F3" t="n">
-        <v>32175.4528613079</v>
+        <v>161521103.492496</v>
       </c>
       <c r="G3" t="n">
-        <v>169556.906971553</v>
+        <v>161600636.268601</v>
       </c>
       <c r="H3" t="n">
-        <v>16610.8893777927</v>
+        <v>6100.89154194934</v>
       </c>
       <c r="I3" t="n">
-        <v>0.103191645714704</v>
+        <v>0.0425277389082881</v>
       </c>
       <c r="J3" t="n">
-        <v>50997.1272987584</v>
+        <v>253.690998418718</v>
       </c>
       <c r="K3" t="n">
-        <v>46407.3858418701</v>
+        <v>23846.9538513595</v>
       </c>
       <c r="L3" t="n">
-        <v>62997.1272987584</v>
+        <v>16253.6909984187</v>
       </c>
       <c r="M3" t="n">
-        <v>203995.081888081</v>
+        <v>107795.987785388</v>
       </c>
       <c r="N3" t="n">
-        <v>69756497.5204919</v>
+        <v>91640317.082376</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" t="n">
-        <v>308714785.073912</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>378471282.594403</v>
-      </c>
+      <c r="P3"/>
+      <c r="Q3"/>
       <c r="R3" t="n">
         <v>303118.169896544</v>
       </c>

--- a/prep/Resultados_Escenario_Baseline.xlsx
+++ b/prep/Resultados_Escenario_Baseline.xlsx
@@ -461,49 +461,53 @@
         <v>18</v>
       </c>
       <c r="B2" t="n">
-        <v>12267300.8204575</v>
+        <v>11554617.8962204</v>
       </c>
       <c r="C2" t="n">
-        <v>-285061964.181795</v>
+        <v>-268947467.421113</v>
       </c>
       <c r="D2" t="n">
-        <v>138494.25677694</v>
+        <v>150420.128107754</v>
       </c>
       <c r="E2" t="n">
-        <v>115998.748094584</v>
+        <v>113487.224209943</v>
       </c>
       <c r="F2" t="n">
-        <v>295973117.038363</v>
+        <v>278274299.226709</v>
       </c>
       <c r="G2" t="n">
-        <v>296089115.786458</v>
+        <v>278387786.450919</v>
       </c>
       <c r="H2" t="n">
-        <v>6100.89154194934</v>
+        <v>6329.2755529044</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0425277389082881</v>
+        <v>0.0407523589586967</v>
       </c>
       <c r="J2" t="n">
-        <v>253.690998418718</v>
+        <v>65.8656047451074</v>
       </c>
       <c r="K2" t="n">
-        <v>23846.9538513595</v>
+        <v>5993.77003180478</v>
       </c>
       <c r="L2" t="n">
-        <v>16253.6909984187</v>
+        <v>18065.8656047451</v>
       </c>
       <c r="M2" t="n">
-        <v>107795.987785388</v>
+        <v>27093.9020234045</v>
       </c>
       <c r="N2" t="n">
-        <v>277972270.223894</v>
+        <v>280171313.839889</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="P2" t="n">
+        <v>1361104165277.77</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1361384336591.61</v>
+      </c>
       <c r="R2" t="n">
         <v>303118.169896544</v>
       </c>
@@ -513,49 +517,53 @@
         <v>18</v>
       </c>
       <c r="B3" t="n">
-        <v>4214395.98159892</v>
+        <v>4037218.5925632</v>
       </c>
       <c r="C3" t="n">
-        <v>-157732230.870394</v>
+        <v>-153492987.85454</v>
       </c>
       <c r="D3" t="n">
-        <v>94166.3911045499</v>
+        <v>103281.492049934</v>
       </c>
       <c r="E3" t="n">
-        <v>79532.7761052403</v>
+        <v>78385.4398651211</v>
       </c>
       <c r="F3" t="n">
-        <v>161521103.492496</v>
+        <v>156770400.673036</v>
       </c>
       <c r="G3" t="n">
-        <v>161600636.268601</v>
+        <v>156848786.112901</v>
       </c>
       <c r="H3" t="n">
-        <v>6100.89154194934</v>
+        <v>6329.2755529044</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0425277389082881</v>
+        <v>0.0407523589586967</v>
       </c>
       <c r="J3" t="n">
-        <v>253.690998418718</v>
+        <v>65.8656047451074</v>
       </c>
       <c r="K3" t="n">
-        <v>23846.9538513595</v>
+        <v>5993.77003180478</v>
       </c>
       <c r="L3" t="n">
-        <v>16253.6909984187</v>
+        <v>18065.8656047451</v>
       </c>
       <c r="M3" t="n">
-        <v>107795.987785388</v>
+        <v>27093.9020234045</v>
       </c>
       <c r="N3" t="n">
-        <v>91640317.082376</v>
+        <v>93485734.7981108</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="P3" t="n">
+        <v>766800415826.048</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>766893901560.847</v>
+      </c>
       <c r="R3" t="n">
         <v>303118.169896544</v>
       </c>
